--- a/medicine/Enfance/Descente_au_pays_sans_nom/Descente_au_pays_sans_nom.xlsx
+++ b/medicine/Enfance/Descente_au_pays_sans_nom/Descente_au_pays_sans_nom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Descente au pays sans nom est le septième roman de la série Les Évadés du temps écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1985 chez Hachette dans la collection Bibliothèque verte.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ygho, disciple d'Ar-Tann, vient demander de l'aide aux évadés du temps car Ar-Tann est mort et Kevnid, son ennemi tout aussi puissant qui a récupéré le dernier souffle d'Ar-Tann, a pris le pouvoir dans le pays sans nom.
 </t>
@@ -543,7 +557,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1985 : Hachette, coll. : Bibliothèque verte, cartonné. Illustrations d'Angel Arias Crespo. 155 p.  (ISBN 2-01-010637-7)
 1989 : Hachette, coll. : Bibliothèque verte, souple, no 132. Illustrations de Patrick Lerond. 160 p.  (ISBN 2-01-015093-7)</t>
